--- a/biology/Histoire de la zoologie et de la botanique/Louis_Pierre_Gratiolet/Louis_Pierre_Gratiolet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Pierre_Gratiolet/Louis_Pierre_Gratiolet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Pierre Gratiolet, né le 6 juillet 1815 à Sainte-Foy-la-Grande et mort le 16 février 1865 à Paris, est un  anatomiste, anthropologue et zoologiste français. Il est membre-fondateur de la Société d'anthropologie et professeur de zoologie à la faculté de sciences de l'université de Paris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de Pierre (ou Pierre-Louis) Gratiolet couvrent aussi bien l'anthropologie physique, l'anatomie du cerveau que la physiognomonie. On lui doit d'avoir décrit les radiations optiques, les voies nerveuses qui connectent le thalamus au cortex visuel, nommées radiations optiques de Gratiolet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Pierre (ou Pierre-Louis) Gratiolet couvrent aussi bien l'anthropologie physique, l'anatomie du cerveau que la physiognomonie. On lui doit d'avoir décrit les radiations optiques, les voies nerveuses qui connectent le thalamus au cortex visuel, nommées radiations optiques de Gratiolet.
 Par ses travaux en anatomie comparée, Gratiolet observe que les circonvolutions cérébrales suivent une organisation similaire entre les différentes espèces de primates et l'homme : chez les espèces plus éloignées, seuls les grands sillons sont présents, mais plus on se rapproche de l'être humain et plus le cerveau est plissé. Gratiolet introduit aussi la division de la surface corticale en cinq lobes (lobe frontal, lobe temporal, lobe pariétal, lobe occipital et insula), découpage encore utilisé au XXIe siècle.
-Il est nommé chevalier de la Légion d'honneur en 1858[2].
+Il est nommé chevalier de la Légion d'honneur en 1858.
 Refusant tout lien entre l'intelligence et la taille du cerveau, Gratiolet s'opposa vivement à Paul Broca (1824-1880) sur cette question mais les deux hommes qui, coïncidence, étaient originaires de la même ville, se retrouvèrent sur l'idée que l'aphasie résultait d'une atteinte des lobes frontaux, en particulier gauche, du cerveau.
 Pierre Gratiolet fut nommé professeur de zoologie à la faculté de sciences de l'université de Paris en 1863, à la suite du décès d'Isidore Geoffroy Saint-Hilaire (1805-1861).
 </t>
@@ -546,7 +560,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches sur l'organe de Jacobson, [Thèse pour le doctorat en médecine, présentée et soutenue le 22 août 1845], Impr. Rignoux, 1845.
 « Notes sur le système veineux des reptiles », in Journ. de l'Institut, tome 21, p. 60.
@@ -593,7 +609,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulevard Gratiolet à Sainte-Foy-la-Grande (Gironde).</t>
         </is>
